--- a/文档/JAVA第三学期阶段项目进度表.xlsx
+++ b/文档/JAVA第三学期阶段项目进度表.xlsx
@@ -422,6 +422,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,10 +435,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,17 +758,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -849,14 +849,14 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -876,17 +876,17 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -907,13 +907,13 @@
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -934,13 +934,13 @@
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -961,13 +961,13 @@
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -988,13 +988,13 @@
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1015,13 +1015,13 @@
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1042,13 +1042,13 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1069,13 +1069,13 @@
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1096,13 +1096,13 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1123,13 +1123,13 @@
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">

--- a/文档/JAVA第三学期阶段项目进度表.xlsx
+++ b/文档/JAVA第三学期阶段项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,71 +132,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.1.2  19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.5  19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.6  17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.8  10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.9  19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.12 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.13 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.14 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级：软件163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期：第三学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生组号/姓名：十一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称：易买网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.25 16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.25 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭玉胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.1.1  10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.2  19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.5  19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.6  17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.8  10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.9  19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.12 19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.13 17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.14 12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级：软件163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学期：第三学期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生组号/姓名：十一组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称：易买网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.25 16：20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.25 16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭玉胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +742,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -773,23 +773,23 @@
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -830,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -876,9 +876,9 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
@@ -903,15 +903,15 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
+      <c r="C7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>11</v>
@@ -938,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>11</v>
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>11</v>
@@ -992,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>11</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
@@ -1073,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>

--- a/文档/JAVA第三学期阶段项目进度表.xlsx
+++ b/文档/JAVA第三学期阶段项目进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>2018.1.1  10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +746,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,16 +840,16 @@
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -863,16 +867,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -890,16 +894,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I6" s="8"/>
     </row>

--- a/文档/JAVA第三学期阶段项目进度表.xlsx
+++ b/文档/JAVA第三学期阶段项目进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>班级：软件163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期：第三学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生组号/姓名：十一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称：易买网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.25 16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.25 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭玉胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.1  10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.1.2  19:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,51 +204,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级：软件163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学期：第三学期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生组号/姓名：十一组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称：易买网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.25 16：20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.25 16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭玉胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.1  10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>如何让验证码变成图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -395,28 +403,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="thick">
-        <color theme="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,7 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +521,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +555,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,14 +730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
@@ -761,43 +749,43 @@
     <col min="8" max="8" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="46.15" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -826,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="34.35" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -834,26 +822,26 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="34.35" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -863,26 +851,26 @@
       <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="34.35" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
@@ -890,24 +878,24 @@
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="34.35" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -915,16 +903,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -934,15 +922,15 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34.35" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>11</v>
@@ -961,24 +949,24 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="34.35" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>11</v>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -988,24 +976,24 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="34.35" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1015,24 +1003,24 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34.35" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1042,15 +1030,15 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="34.35" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
@@ -1069,15 +1057,15 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="34.35" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1096,24 +1084,24 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1123,15 +1111,15 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="26.25" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -1150,7 +1138,6 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/文档/JAVA第三学期阶段项目进度表.xlsx
+++ b/文档/JAVA第三学期阶段项目进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生填写老师检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目分析，数据库搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生填写老师检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页面验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,19 +196,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未按照进度表进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.1  10:01</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间安排效率低下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目设计的时候未完整系统的进行设计，功能完成后有许多不足，后期完善也比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如何让验证码变成图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +546,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,14 +757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
@@ -749,7 +776,7 @@
     <col min="8" max="8" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.15" customHeight="1">
+    <row r="1" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -762,30 +789,30 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -814,329 +841,332 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34.35" customHeight="1">
+    <row r="4" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="34.35" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="I15" s="8"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
